--- a/tencent.xlsx
+++ b/tencent.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA88E9FF-3A39-483B-BD68-D17CE49CD368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>应用名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,13 +43,21 @@
   </si>
   <si>
     <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,23 +378,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="28.5" style="1" customWidth="1"/>
+    <col min="3" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -398,9 +405,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
